--- a/Lending/20181119 - uiux.api.investigation.cmc.plan.draft.xlsx
+++ b/Lending/20181119 - uiux.api.investigation.cmc.plan.draft.xlsx
@@ -892,7 +892,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -911,12 +911,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -930,7 +924,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1031,9 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
@@ -1807,7 +1798,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I13" sqref="I13"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.3"/>
@@ -2164,10 +2155,10 @@
       <c r="G9" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="36">
+      <c r="H9" s="35">
         <v>43416</v>
       </c>
-      <c r="I9" s="36">
+      <c r="I9" s="35">
         <v>43420</v>
       </c>
       <c r="J9" s="23" t="s">
@@ -2206,11 +2197,11 @@
       <c r="G10" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="H10" s="36">
-        <v>43423</v>
-      </c>
-      <c r="I10" s="36">
-        <v>43434</v>
+      <c r="H10" s="35">
+        <v>43452</v>
+      </c>
+      <c r="I10" s="35">
+        <v>43465</v>
       </c>
       <c r="J10" s="23" t="s">
         <v>70</v>
@@ -2244,14 +2235,14 @@
       <c r="G11" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="H11" s="36">
-        <v>43437</v>
-      </c>
-      <c r="I11" s="36">
-        <v>43448</v>
+      <c r="H11" s="35">
+        <v>43453</v>
+      </c>
+      <c r="I11" s="35">
+        <v>43467</v>
       </c>
       <c r="J11" s="23" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K11" s="19" t="s">
         <v>59</v>
@@ -2284,11 +2275,11 @@
       <c r="G12" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H12" s="36">
-        <v>43451</v>
-      </c>
-      <c r="I12" s="36">
-        <v>43465</v>
+      <c r="H12" s="35">
+        <v>43467</v>
+      </c>
+      <c r="I12" s="35">
+        <v>43480</v>
       </c>
       <c r="J12" s="23" t="s">
         <v>70</v>
@@ -2324,14 +2315,14 @@
       <c r="G13" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="35">
         <v>43468</v>
       </c>
-      <c r="I13" s="36">
-        <v>43479</v>
+      <c r="I13" s="35">
+        <v>43481</v>
       </c>
       <c r="J13" s="23" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K13" s="19" t="s">
         <v>59</v>
@@ -2364,13 +2355,13 @@
       <c r="G14" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H14" s="36">
-        <v>43420</v>
-      </c>
-      <c r="I14" s="36">
-        <v>43441</v>
-      </c>
-      <c r="J14" s="35" t="s">
+      <c r="H14" s="35">
+        <v>43453</v>
+      </c>
+      <c r="I14" s="35">
+        <v>43467</v>
+      </c>
+      <c r="J14" s="23" t="s">
         <v>252</v>
       </c>
       <c r="K14" s="19" t="s">
@@ -2402,13 +2393,13 @@
       <c r="G15" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H15" s="36">
-        <v>43438</v>
-      </c>
-      <c r="I15" s="36">
-        <v>43448</v>
-      </c>
-      <c r="J15" s="35" t="s">
+      <c r="H15" s="35">
+        <v>43468</v>
+      </c>
+      <c r="I15" s="35">
+        <v>43481</v>
+      </c>
+      <c r="J15" s="23" t="s">
         <v>252</v>
       </c>
       <c r="K15" s="19" t="s">
@@ -2440,14 +2431,14 @@
       <c r="G16" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="36">
-        <v>43451</v>
-      </c>
-      <c r="I16" s="36">
-        <v>43462</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>252</v>
+      <c r="H16" s="35">
+        <v>43481</v>
+      </c>
+      <c r="I16" s="35">
+        <v>43494</v>
+      </c>
+      <c r="J16" s="23" t="s">
+        <v>70</v>
       </c>
       <c r="K16" s="19" t="s">
         <v>59</v>
@@ -2478,13 +2469,13 @@
       <c r="G17" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H17" s="36">
-        <v>43467</v>
-      </c>
-      <c r="I17" s="36">
-        <v>43476</v>
-      </c>
-      <c r="J17" s="35" t="s">
+      <c r="H17" s="35">
+        <v>43482</v>
+      </c>
+      <c r="I17" s="35">
+        <v>43495</v>
+      </c>
+      <c r="J17" s="23" t="s">
         <v>252</v>
       </c>
       <c r="K17" s="19" t="s">
@@ -2516,14 +2507,14 @@
       <c r="G18" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H18" s="36">
-        <v>43480</v>
-      </c>
-      <c r="I18" s="36">
-        <v>43496</v>
+      <c r="H18" s="35">
+        <v>43482</v>
+      </c>
+      <c r="I18" s="35">
+        <v>43495</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>70</v>
+        <v>106</v>
       </c>
       <c r="K18" s="19" t="s">
         <v>59</v>
@@ -2534,7 +2525,7 @@
       </c>
       <c r="N18" s="19"/>
     </row>
-    <row r="19" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" ht="24" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="19"/>
       <c r="B19" s="19" t="s">
         <v>110</v>
@@ -2552,10 +2543,10 @@
         <v>104</v>
       </c>
       <c r="G19" s="21"/>
-      <c r="H19" s="36">
+      <c r="H19" s="35">
         <v>43409</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="35">
         <v>43420</v>
       </c>
       <c r="J19" s="23" t="s">
@@ -2570,7 +2561,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>31</v>
       </c>
@@ -2592,10 +2583,10 @@
       <c r="G20" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="35">
         <v>43409</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="35">
         <v>43420</v>
       </c>
       <c r="J20" s="23" t="s">
@@ -2638,7 +2629,7 @@
       <c r="M21" s="24"/>
       <c r="N21" s="19"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>31</v>
       </c>
@@ -2660,10 +2651,10 @@
       <c r="G22" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="35">
         <v>43416</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="35">
         <v>43420</v>
       </c>
       <c r="J22" s="23" t="s">
@@ -2676,7 +2667,7 @@
       <c r="M22" s="24"/>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" spans="1:14" s="16" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" s="16" customFormat="1" ht="18.600000000000001" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>31</v>
       </c>
@@ -2698,10 +2689,10 @@
       <c r="G23" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="H23" s="36">
+      <c r="H23" s="35">
         <v>43419</v>
       </c>
-      <c r="I23" s="36">
+      <c r="I23" s="35">
         <v>43420</v>
       </c>
       <c r="J23" s="23" t="s">
@@ -2736,10 +2727,10 @@
       <c r="G24" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="H24" s="36">
+      <c r="H24" s="35">
         <v>43423</v>
       </c>
-      <c r="I24" s="36">
+      <c r="I24" s="35">
         <v>43425</v>
       </c>
       <c r="J24" s="23" t="s">
@@ -2774,10 +2765,10 @@
       <c r="G25" s="21" t="s">
         <v>134</v>
       </c>
-      <c r="H25" s="36">
+      <c r="H25" s="35">
         <v>43424</v>
       </c>
-      <c r="I25" s="36">
+      <c r="I25" s="35">
         <v>43437</v>
       </c>
       <c r="J25" s="23" t="s">
@@ -2848,10 +2839,10 @@
       <c r="G27" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="H27" s="36">
+      <c r="H27" s="35">
         <v>43424</v>
       </c>
-      <c r="I27" s="36">
+      <c r="I27" s="35">
         <v>43432</v>
       </c>
       <c r="J27" s="23" t="s">
@@ -2886,10 +2877,10 @@
       <c r="G28" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H28" s="36">
+      <c r="H28" s="35">
         <v>43426</v>
       </c>
-      <c r="I28" s="36">
+      <c r="I28" s="35">
         <v>43430</v>
       </c>
       <c r="J28" s="23" t="s">
@@ -2942,10 +2933,10 @@
       <c r="G30" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H30" s="36">
+      <c r="H30" s="35">
         <v>43431</v>
       </c>
-      <c r="I30" s="36">
+      <c r="I30" s="35">
         <v>43434</v>
       </c>
       <c r="J30" s="23" t="s">
@@ -2980,10 +2971,10 @@
       <c r="G31" s="21" t="s">
         <v>130</v>
       </c>
-      <c r="H31" s="36">
+      <c r="H31" s="35">
         <v>43433</v>
       </c>
-      <c r="I31" s="36">
+      <c r="I31" s="35">
         <v>43437</v>
       </c>
       <c r="J31" s="23" t="s">
@@ -3018,10 +3009,10 @@
       <c r="G32" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="36">
+      <c r="H32" s="35">
         <v>43437</v>
       </c>
-      <c r="I32" s="36">
+      <c r="I32" s="35">
         <v>43439</v>
       </c>
       <c r="J32" s="23" t="s">
@@ -3056,10 +3047,10 @@
       <c r="G33" s="21" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="36">
+      <c r="H33" s="35">
         <v>43438</v>
       </c>
-      <c r="I33" s="36">
+      <c r="I33" s="35">
         <v>43451</v>
       </c>
       <c r="J33" s="23" t="s">
@@ -3114,10 +3105,10 @@
       <c r="G35" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="H35" s="36">
+      <c r="H35" s="35">
         <v>43803</v>
       </c>
-      <c r="I35" s="36">
+      <c r="I35" s="35">
         <v>43809</v>
       </c>
       <c r="J35" s="23" t="s">
@@ -3154,10 +3145,10 @@
       <c r="G36" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="H36" s="36">
+      <c r="H36" s="35">
         <v>43805</v>
       </c>
-      <c r="I36" s="36">
+      <c r="I36" s="35">
         <v>43812</v>
       </c>
       <c r="J36" s="23" t="s">
@@ -3192,10 +3183,10 @@
       <c r="G37" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H37" s="36">
+      <c r="H37" s="35">
         <v>43810</v>
       </c>
-      <c r="I37" s="36">
+      <c r="I37" s="35">
         <v>43812</v>
       </c>
       <c r="J37" s="23" t="s">
@@ -3230,10 +3221,10 @@
       <c r="G38" s="21" t="s">
         <v>143</v>
       </c>
-      <c r="H38" s="36">
+      <c r="H38" s="35">
         <v>43813</v>
       </c>
-      <c r="I38" s="36">
+      <c r="I38" s="35">
         <v>43817</v>
       </c>
       <c r="J38" s="23" t="s">
@@ -3268,10 +3259,10 @@
       <c r="G39" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="H39" s="36">
+      <c r="H39" s="35">
         <v>43813</v>
       </c>
-      <c r="I39" s="36">
+      <c r="I39" s="35">
         <v>43817</v>
       </c>
       <c r="J39" s="23" t="s">
@@ -4653,7 +4644,6 @@
     <filterColumn colId="10">
       <filters>
         <filter val="Open"/>
-        <filter val="WIP"/>
       </filters>
     </filterColumn>
     <sortState ref="A19:M39">
